--- a/tables/xls/it/03_MEZZI EVENTO.xlsx
+++ b/tables/xls/it/03_MEZZI EVENTO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>EVENTO</t>
   </si>
@@ -141,7 +141,13 @@
     <t>MEZZI ATTESI</t>
   </si>
   <si>
+    <t>D.V.G.</t>
+  </si>
+  <si>
     <t>COD. ORG.</t>
+  </si>
+  <si>
+    <t>VG</t>
   </si>
   <si>
     <t>PROV.</t>
@@ -664,10 +670,10 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -902,6 +908,12 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -977,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -985,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -993,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1009,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1041,7 +1053,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
